--- a/Code/Python/test.xlsx
+++ b/Code/Python/test.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbackus\Dropbox\Documents\Classes\Data_Bootcamp\Code\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16284" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>x1</t>
   </si>
   <si>
     <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
   </si>
 </sst>
 </file>
@@ -339,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -347,44 +345,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
         <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Python/test.xlsx
+++ b/Code/Python/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x1</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>x3</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Spencer</t>
   </si>
 </sst>
 </file>
@@ -337,7 +349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -345,55 +357,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7</v>
       </c>
     </row>

--- a/Code/Python/test.xlsx
+++ b/Code/Python/test.xlsx
@@ -75,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -359,9 +360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -380,7 +379,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -390,11 +389,11 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -404,11 +403,11 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -418,7 +417,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
